--- a/工具/配置表/StoryConfig.xlsx
+++ b/工具/配置表/StoryConfig.xlsx
@@ -4,18 +4,87 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="4995"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StoryConfig" sheetId="2" r:id="rId1"/>
     <sheet name="DialogueConfig" sheetId="1" r:id="rId2"/>
+    <sheet name="DialogueTemp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>90512</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>90512:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：己方
+1：对方
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>90512</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>90512:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：己方
+1：对方
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>LevelID</t>
   </si>
@@ -53,7 +122,7 @@
     <t>故事ID</t>
   </si>
   <si>
-    <t>段落ID</t>
+    <t>片段ID</t>
   </si>
   <si>
     <t>对话标题</t>
@@ -65,16 +134,79 @@
     <t>Sequence</t>
   </si>
   <si>
+    <t>SpeakSide</t>
+  </si>
+  <si>
     <t>RoleName</t>
   </si>
   <si>
+    <t>Emotion</t>
+  </si>
+  <si>
     <t>Sentence</t>
   </si>
   <si>
     <t>顺序</t>
   </si>
   <si>
+    <t>对话立场</t>
+  </si>
+  <si>
+    <t>角色情绪</t>
+  </si>
+  <si>
     <t>单句台词</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>欢迎来到helloWorld!</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>She was Right!</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>怎么了?</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Finn....</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>you need to be a fucking man!</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I don't go around apologising,Do I?</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>你们两个中国人在唧唧歪歪啥?</t>
+  </si>
+  <si>
+    <t>你们这种装逼佬我见多了。</t>
+  </si>
+  <si>
+    <t>现在我要干翻你们!</t>
   </si>
 </sst>
 </file>
@@ -82,17 +214,69 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,10 +288,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,17 +320,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,54 +345,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,14 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -225,19 +373,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -249,84 +392,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,97 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,21 +612,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,16 +644,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,151 +674,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1123,54 +1266,370 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
+    <col min="8" max="8" width="13.5416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/工具/配置表/StoryConfig.xlsx
+++ b/工具/配置表/StoryConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StoryConfig" sheetId="2" r:id="rId1"/>
@@ -215,14 +215,143 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,137 +365,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,163 +446,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,17 +640,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,186 +683,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1352,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
